--- a/text_model/text_analysis_result_stat.xlsx
+++ b/text_model/text_analysis_result_stat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ваш</t>
+          <t>метадон</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -473,7 +473,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>зумерский</t>
+          <t>гашиш</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -483,10 +483,280 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>синтетический</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>насвая</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>убойный</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>предпочесть</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>кий</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ру</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>настоящий</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>цель</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>экспериментальный</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>создать</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>группа</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>у҉м҉р҉</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>я҉</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>е҉с҉л҉и҉</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>с҉л҉у҉ч҉а҉й҉</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>н҉а҉</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>║</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>／</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>￣▽￣</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>☆【b】шｋｏлｅ≧◡≦tak匚【k】ㄚчh̲o̲＼</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>⌒▽⌒</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>дело</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>привет</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>весь</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
           <t>снюс</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>зумерский</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>ваш</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>мефедрон</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>1</v>
       </c>
     </row>

--- a/text_model/text_analysis_result_stat.xlsx
+++ b/text_model/text_analysis_result_stat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,7 +653,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>／</t>
+          <t>дело</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -663,7 +663,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>￣▽￣</t>
+          <t>привет</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -673,7 +673,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>☆【b】шｋｏлｅ≧◡≦tak匚【k】ㄚчh̲o̲＼</t>
+          <t>весь</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -683,7 +683,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>⌒▽⌒</t>
+          <t>снюс</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -693,7 +693,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>дело</t>
+          <t>зумерский</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -703,7 +703,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>привет</t>
+          <t>ваш</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -713,50 +713,10 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>весь</t>
+          <t>мефедрон</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>снюс</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>зумерский</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>ваш</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>мефедрон</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
         <v>1</v>
       </c>
     </row>
